--- a/Output/NMA_results/weibull NMA FE.xlsx
+++ b/Output/NMA_results/weibull NMA FE.xlsx
@@ -15,113 +15,269 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.eff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X2.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X50.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X75.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X97.5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summaryFE.start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summaryFE.end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,3]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[1,4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alpha[2,4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d[2,1]</t>
   </si>
   <si>
     <t xml:space="preserve">d[1,2]</t>
   </si>
   <si>
+    <t xml:space="preserve">d[2,2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">d[1,3]</t>
   </si>
   <si>
+    <t xml:space="preserve">d[2,3]</t>
+  </si>
+  <si>
     <t xml:space="preserve">d[1,4]</t>
   </si>
   <si>
-    <t xml:space="preserve">d[2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d[2,3]</t>
-  </si>
-  <si>
     <t xml:space="preserve">d[2,4]</t>
   </si>
   <si>
+    <t xml:space="preserve">mean.y[1,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,1,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,3,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,1,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[1,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[2,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[3,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[4,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[5,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[6,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[8,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[9,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[10,2,2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.y[7,3,2]</t>
+  </si>
+  <si>
     <t xml:space="preserve">mu[1,1]</t>
   </si>
   <si>
+    <t xml:space="preserve">mu[2,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[3,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[4,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[5,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[6,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[7,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[8,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[9,1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mu[10,1]</t>
+  </si>
+  <si>
     <t xml:space="preserve">mu[1,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[2,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[2,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[3,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[3,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[4,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[4,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[5,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[5,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[6,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[6,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[7,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[7,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[8,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[8,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[9,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[9,2]</t>
   </si>
   <si>
-    <t xml:space="preserve">mu[10,1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">mu[10,2]</t>
   </si>
   <si>
@@ -129,159 +285,6 @@
   </si>
   <si>
     <t xml:space="preserve">mu_mean[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[1,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[2,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[3,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[4,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[5,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[6,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,3,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[7,3,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[8,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[9,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.y[10,2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[1,4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alpha[2,4]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deviance</t>
   </si>
   <si>
     <t xml:space="preserve">treatment</t>
@@ -737,31 +740,31 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.205006445529275</v>
+        <v>-2.49111666073265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.10484249584823</v>
+        <v>0.0577471300487715</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4088</v>
+        <v>-2.59737910368333</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.276</v>
+        <v>-2.53123659211492</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2054</v>
+        <v>-2.49189302867119</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1346</v>
+        <v>-2.45206161884757</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00232600000000012</v>
+        <v>-2.37764285457303</v>
       </c>
       <c r="I2" t="n">
-        <v>1.00103854885688</v>
+        <v>502</v>
       </c>
       <c r="J2" t="n">
-        <v>23000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -769,31 +772,31 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2499551334616</v>
+        <v>0.0200590170779654</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142784878296393</v>
+        <v>0.033487445202082</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5307</v>
+        <v>-0.0470014403952893</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3465</v>
+        <v>-0.00303316600164318</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.24945</v>
+        <v>0.0197274016659746</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1527</v>
+        <v>0.0436975859487794</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02870025</v>
+        <v>0.0850269721666005</v>
       </c>
       <c r="I3" t="n">
-        <v>1.00124974687362</v>
+        <v>502</v>
       </c>
       <c r="J3" t="n">
-        <v>5400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -801,31 +804,31 @@
         <v>12</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.170763310651025</v>
+        <v>-2.68426344420592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.111209303349451</v>
+        <v>0.0960760196969166</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3899025</v>
+        <v>-2.87395167969878</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2462</v>
+        <v>-2.74787310687446</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1706</v>
+        <v>-2.68628283901849</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09542</v>
+        <v>-2.61518163696738</v>
       </c>
       <c r="H4" t="n">
-        <v>0.04686</v>
+        <v>-2.49750818276529</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00104492307049</v>
+        <v>502</v>
       </c>
       <c r="J4" t="n">
-        <v>21000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5">
@@ -833,31 +836,31 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0043074789041525</v>
+        <v>0.0290123535411608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0533067856040926</v>
+        <v>0.0538011326841547</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1001</v>
+        <v>-0.0818269255148786</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.03192</v>
+        <v>-0.00477490992199006</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0045085</v>
+        <v>0.0293720167825133</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03993</v>
+        <v>0.0657476224830538</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1094</v>
+        <v>0.135231282298442</v>
       </c>
       <c r="I5" t="n">
-        <v>1.00098259536425</v>
+        <v>502</v>
       </c>
       <c r="J5" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
@@ -865,31 +868,31 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>0.118793374718925</v>
+        <v>-2.71393962843117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0783988529468053</v>
+        <v>0.109785247867976</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.03483275</v>
+        <v>-2.93884601206045</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06567</v>
+        <v>-2.78420163290109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1187</v>
+        <v>-2.71207658347845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1723</v>
+        <v>-2.64093279667709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2722025</v>
+        <v>-2.50416239028993</v>
       </c>
       <c r="I6" t="n">
-        <v>1.00227450987362</v>
+        <v>502</v>
       </c>
       <c r="J6" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
@@ -897,31 +900,31 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0278167108176</v>
+        <v>0.137542859523242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0698690802065138</v>
+        <v>0.0595338507226062</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1654</v>
+        <v>0.0179882272737172</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0745525</v>
+        <v>0.099162950076909</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02764</v>
+        <v>0.138523820202821</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01881</v>
+        <v>0.177034188149019</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1101025</v>
+        <v>0.253042945006701</v>
       </c>
       <c r="I7" t="n">
-        <v>1.00107395968777</v>
+        <v>502</v>
       </c>
       <c r="J7" t="n">
-        <v>15000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -929,31 +932,31 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.3820962</v>
+        <v>-2.68066308781792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0925751859284454</v>
+        <v>0.0934154189098182</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.564</v>
+        <v>-2.85822861170757</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.445</v>
+        <v>-2.74480648561571</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.382</v>
+        <v>-2.68117184671437</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.32</v>
+        <v>-2.6198531067581</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.201</v>
+        <v>-2.49462288055369</v>
       </c>
       <c r="I8" t="n">
-        <v>1.00099738454645</v>
+        <v>502</v>
       </c>
       <c r="J8" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
@@ -961,31 +964,31 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.063469293633125</v>
+        <v>-0.0150147066310531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0576553421333208</v>
+        <v>0.0650984860054503</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.04924225</v>
+        <v>-0.136543251575485</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02498</v>
+        <v>-0.0589113102001331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.06361</v>
+        <v>-0.0159703111359699</v>
       </c>
       <c r="G9" t="n">
-        <v>0.102225</v>
+        <v>0.027977768373394</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1761</v>
+        <v>0.11556118269982</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0009742985161</v>
+        <v>502</v>
       </c>
       <c r="J9" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -993,31 +996,31 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.209085625</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.159204597596793</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.524</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.317</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.208</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.898</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.00110033990944</v>
+        <v>502</v>
       </c>
       <c r="J10" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11">
@@ -1025,31 +1028,31 @@
         <v>19</v>
       </c>
       <c r="B11" t="n">
-        <v>0.16791511434865</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0923013048920543</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0141505</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1057</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.168</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2296</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3484025</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0016720830255</v>
+        <v>502</v>
       </c>
       <c r="J11" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -1057,31 +1060,31 @@
         <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.459970525</v>
+        <v>-0.193146783473266</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0997921408128344</v>
+        <v>0.0855780609962799</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.657</v>
+        <v>-0.358509916192835</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.527</v>
+        <v>-0.25126450149598</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.46</v>
+        <v>-0.193440037261319</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.392</v>
+        <v>-0.136169804961464</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.264</v>
+        <v>-0.0245880400698694</v>
       </c>
       <c r="I12" t="n">
-        <v>1.00110476404728</v>
+        <v>502</v>
       </c>
       <c r="J12" t="n">
-        <v>11000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
@@ -1089,31 +1092,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0206976669665</v>
+        <v>0.00895333646319542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0692399792296009</v>
+        <v>0.0483451921955155</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1563025</v>
+        <v>-0.0894510798140681</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.067605</v>
+        <v>-0.0213222717533035</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.020795</v>
+        <v>0.00959166654521628</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02608</v>
+        <v>0.040005280605551</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1154</v>
+        <v>0.105210236358204</v>
       </c>
       <c r="I13" t="n">
-        <v>1.00103075239142</v>
+        <v>502</v>
       </c>
       <c r="J13" t="n">
-        <v>26000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14">
@@ -1121,31 +1124,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.55004865</v>
+        <v>-0.222822967698517</v>
       </c>
       <c r="C14" t="n">
-        <v>0.210766639432299</v>
+        <v>0.120311231732377</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.962</v>
+        <v>-0.46949427552558</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.693</v>
+        <v>-0.298546290051621</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.551</v>
+        <v>-0.221768789776544</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.406</v>
+        <v>-0.141540315424215</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.139</v>
+        <v>0.00760343477295245</v>
       </c>
       <c r="I14" t="n">
-        <v>1.00123529401783</v>
+        <v>502</v>
       </c>
       <c r="J14" t="n">
-        <v>5700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
@@ -1153,31 +1156,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.017999666429825</v>
+        <v>0.117483842445277</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115204628735502</v>
+        <v>0.0683003598594678</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2448025</v>
+        <v>-0.0159228591753855</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.0953725</v>
+        <v>0.0709843998653026</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01814</v>
+        <v>0.11635166419519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.059155</v>
+        <v>0.163884341780166</v>
       </c>
       <c r="H15" t="n">
-        <v>0.209</v>
+        <v>0.254977434925411</v>
       </c>
       <c r="I15" t="n">
-        <v>1.00115594033022</v>
+        <v>502</v>
       </c>
       <c r="J15" t="n">
-        <v>8200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
@@ -1185,31 +1188,31 @@
         <v>24</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.330443975</v>
+        <v>-0.189546427085264</v>
       </c>
       <c r="C16" t="n">
-        <v>0.214477483260994</v>
+        <v>0.103286162675754</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.749</v>
+        <v>-0.392522039444655</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.47525</v>
+        <v>-0.257251150630097</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.33</v>
+        <v>-0.185389097516787</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.187</v>
+        <v>-0.123312436494141</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.909</v>
+        <v>0.0169229408952609</v>
       </c>
       <c r="I16" t="n">
-        <v>1.00122331852872</v>
+        <v>502</v>
       </c>
       <c r="J16" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="17">
@@ -1217,31 +1220,31 @@
         <v>25</v>
       </c>
       <c r="B17" t="n">
-        <v>0.13898155848635</v>
+        <v>-0.0350737237090185</v>
       </c>
       <c r="C17" t="n">
-        <v>0.109447237497204</v>
+        <v>0.075078241456578</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.07464025</v>
+        <v>-0.178316942907796</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06583</v>
+        <v>-0.0852035595776872</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1393</v>
+        <v>-0.0357373174373841</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2124</v>
+        <v>0.0107362075137732</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3524025</v>
+        <v>0.117279732800245</v>
       </c>
       <c r="I17" t="n">
-        <v>1.00125193962385</v>
+        <v>502</v>
       </c>
       <c r="J17" t="n">
-        <v>5400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="18">
@@ -1249,31 +1252,31 @@
         <v>26</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.0228175</v>
+        <v>-2.31440070769549</v>
       </c>
       <c r="C18" t="n">
-        <v>0.32174523002459</v>
+        <v>0.086291893521401</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.656</v>
+        <v>-2.48132342397211</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.239</v>
+        <v>-2.37399515109221</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.024</v>
+        <v>-2.31305520295557</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.808</v>
+        <v>-2.25203491182822</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.387</v>
+        <v>-2.14942527369409</v>
       </c>
       <c r="I18" t="n">
-        <v>1.00145463748347</v>
+        <v>502</v>
       </c>
       <c r="J18" t="n">
-        <v>3100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19">
@@ -1281,31 +1284,31 @@
         <v>27</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0898994489764</v>
+        <v>-3.14402691789636</v>
       </c>
       <c r="C19" t="n">
-        <v>0.144737274071372</v>
+        <v>0.147618024838209</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1944</v>
+        <v>-3.43719621495686</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0070745</v>
+        <v>-3.24895897327478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09049</v>
+        <v>-3.13999574678434</v>
       </c>
       <c r="G19" t="n">
-        <v>0.187125</v>
+        <v>-3.04379791879658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3708</v>
+        <v>-2.87025738967132</v>
       </c>
       <c r="I19" t="n">
-        <v>1.00169831072122</v>
+        <v>502</v>
       </c>
       <c r="J19" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20">
@@ -1313,31 +1316,31 @@
         <v>28</v>
       </c>
       <c r="B20" t="n">
-        <v>-2.7565041</v>
+        <v>-2.39170449342518</v>
       </c>
       <c r="C20" t="n">
-        <v>0.114853444293289</v>
+        <v>0.08764397976582</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.98</v>
+        <v>-2.55824597696798</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.834</v>
+        <v>-2.45217160391504</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.757</v>
+        <v>-2.38936407860654</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.679</v>
+        <v>-2.33292758582806</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.531</v>
+        <v>-2.22056474422704</v>
       </c>
       <c r="I20" t="n">
-        <v>1.00097752167159</v>
+        <v>502</v>
       </c>
       <c r="J20" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21">
@@ -1345,31 +1348,31 @@
         <v>29</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.040780704876275</v>
+        <v>-2.45766377833005</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0650310141157544</v>
+        <v>0.194738124726257</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1677</v>
+        <v>-2.83223030096746</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.0844025</v>
+        <v>-2.5885636246865</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04132</v>
+        <v>-2.45593207000419</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00286025</v>
+        <v>-2.32447916799329</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0877305</v>
+        <v>-2.08850073067326</v>
       </c>
       <c r="I21" t="n">
-        <v>1.0010004801969</v>
+        <v>502</v>
       </c>
       <c r="J21" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22">
@@ -1377,31 +1380,31 @@
         <v>30</v>
       </c>
       <c r="B22" t="n">
-        <v>-1.8261328</v>
+        <v>-2.23740892036724</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08423799033177</v>
+        <v>0.186708514428427</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.993</v>
+        <v>-2.59625949821539</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.883</v>
+        <v>-2.35805220405518</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.826</v>
+        <v>-2.23841753377883</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.769</v>
+        <v>-2.1193116810912</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.661</v>
+        <v>-1.87565561122744</v>
       </c>
       <c r="I22" t="n">
-        <v>1.00101903346791</v>
+        <v>502</v>
       </c>
       <c r="J22" t="n">
-        <v>33000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23">
@@ -1409,31 +1412,31 @@
         <v>31</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.18476980575</v>
+        <v>-3.09904699774047</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0390056642184285</v>
+        <v>0.251737257450964</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2612</v>
+        <v>-3.58428961411203</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.2111</v>
+        <v>-3.27553508015461</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1847</v>
+        <v>-3.1026923065435</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1583</v>
+        <v>-2.92839931192713</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1081</v>
+        <v>-2.60591646580824</v>
       </c>
       <c r="I23" t="n">
-        <v>1.00097799231845</v>
+        <v>502</v>
       </c>
       <c r="J23" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24">
@@ -1441,31 +1444,31 @@
         <v>32</v>
       </c>
       <c r="B24" t="n">
-        <v>-2.67182385</v>
+        <v>-2.68971441357883</v>
       </c>
       <c r="C24" t="n">
-        <v>0.151544268327143</v>
+        <v>0.110420461631123</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.969</v>
+        <v>-2.90753276744077</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.774</v>
+        <v>-2.76401325172936</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.672</v>
+        <v>-2.69046487290672</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.57</v>
+        <v>-2.61302000756139</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.375</v>
+        <v>-2.47412104376106</v>
       </c>
       <c r="I24" t="n">
-        <v>1.00100172439129</v>
+        <v>502</v>
       </c>
       <c r="J24" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25">
@@ -1473,31 +1476,31 @@
         <v>33</v>
       </c>
       <c r="B25" t="n">
-        <v>0.14900377379975</v>
+        <v>-1.84719356885684</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0832113324478672</v>
+        <v>0.0665478936841341</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.01498225</v>
+        <v>-1.97999092574222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09258</v>
+        <v>-1.89266650326882</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1492</v>
+        <v>-1.84771623049037</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2052</v>
+        <v>-1.80325478503733</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3122025</v>
+        <v>-1.71666670099212</v>
       </c>
       <c r="I25" t="n">
-        <v>1.00118100790403</v>
+        <v>502</v>
       </c>
       <c r="J25" t="n">
-        <v>7200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26">
@@ -1505,31 +1508,31 @@
         <v>34</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.07331985</v>
+        <v>-2.64972697897279</v>
       </c>
       <c r="C26" t="n">
-        <v>0.202368264109854</v>
+        <v>0.134639366554148</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.469</v>
+        <v>-2.90008128976081</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.211</v>
+        <v>-2.74077283940138</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.072</v>
+        <v>-2.64878407214158</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.935</v>
+        <v>-2.55656425250709</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.679975</v>
+        <v>-2.38727705441961</v>
       </c>
       <c r="I26" t="n">
-        <v>1.00117677177485</v>
+        <v>502</v>
       </c>
       <c r="J26" t="n">
-        <v>7400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27">
@@ -1537,31 +1540,31 @@
         <v>35</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.07523544953075</v>
+        <v>-2.08027983046328</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110907763472098</v>
+        <v>0.207304462276104</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2923</v>
+        <v>-2.45348440492947</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1503</v>
+        <v>-2.23921279466786</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07601</v>
+        <v>-2.07253771597885</v>
       </c>
       <c r="G27" t="n">
-        <v>0.000425575</v>
+        <v>-1.9485430588199</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1404</v>
+        <v>-1.65066495604078</v>
       </c>
       <c r="I27" t="n">
-        <v>1.00125283201324</v>
+        <v>502</v>
       </c>
       <c r="J27" t="n">
-        <v>5400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28">
@@ -1569,31 +1572,31 @@
         <v>36</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.528223725</v>
+        <v>-2.50754749116876</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0648520174453235</v>
+        <v>0.0952666259650584</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.656</v>
+        <v>-2.68787220241193</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.572</v>
+        <v>-2.57228496431811</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.528</v>
+        <v>-2.50856335202623</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.485</v>
+        <v>-2.44164583228061</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.401</v>
+        <v>-2.32974556907634</v>
       </c>
       <c r="I28" t="n">
-        <v>1.00122051280226</v>
+        <v>502</v>
       </c>
       <c r="J28" t="n">
-        <v>6100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29">
@@ -1601,31 +1604,31 @@
         <v>37</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02697854919445</v>
+        <v>-3.36684988559488</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0359778026775478</v>
+        <v>0.168097692522807</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.04348125</v>
+        <v>-3.70408345192393</v>
       </c>
       <c r="E29" t="n">
-        <v>0.00269325</v>
+        <v>-3.4782887240445</v>
       </c>
       <c r="F29" t="n">
-        <v>0.027045</v>
+        <v>-3.36645587888411</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0512625</v>
+        <v>-3.25678527531146</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09791025</v>
+        <v>-3.03456880861826</v>
       </c>
       <c r="I29" t="n">
-        <v>1.00160871391363</v>
+        <v>502</v>
       </c>
       <c r="J29" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30">
@@ -1633,31 +1636,31 @@
         <v>38</v>
       </c>
       <c r="B30" t="n">
-        <v>-2.3820962</v>
+        <v>-2.58125092051045</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0925751859284454</v>
+        <v>0.0829660474301822</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.564</v>
+        <v>-2.74609696384588</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.445</v>
+        <v>-2.63840551416882</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.382</v>
+        <v>-2.57746429480024</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.32</v>
+        <v>-2.52219566186306</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.201</v>
+        <v>-2.42372290441827</v>
       </c>
       <c r="I30" t="n">
-        <v>1.00099738454645</v>
+        <v>502</v>
       </c>
       <c r="J30" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="31">
@@ -1665,31 +1668,31 @@
         <v>39</v>
       </c>
       <c r="B31" t="n">
-        <v>0.063469293633125</v>
+        <v>-2.64721020541531</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0576553421333208</v>
+        <v>0.200654623582647</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.04924225</v>
+        <v>-3.0359196876042</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02498</v>
+        <v>-2.77111356709005</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06361</v>
+        <v>-2.65805737114033</v>
       </c>
       <c r="G31" t="n">
-        <v>0.102225</v>
+        <v>-2.51491923535692</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1761</v>
+        <v>-2.24740501359959</v>
       </c>
       <c r="I31" t="n">
-        <v>1.0009742985161</v>
+        <v>502</v>
       </c>
       <c r="J31" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="32">
@@ -1697,31 +1700,31 @@
         <v>40</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.587103925</v>
+        <v>-2.42695534745251</v>
       </c>
       <c r="C32" t="n">
-        <v>0.10210010080974</v>
+        <v>0.189068844511652</v>
       </c>
       <c r="D32" t="n">
-        <v>-2.787</v>
+        <v>-2.8140693036924</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.656</v>
+        <v>-2.55284987086459</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.587</v>
+        <v>-2.4279102354751</v>
       </c>
       <c r="G32" t="n">
-        <v>-2.518</v>
+        <v>-2.30633807845263</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.388</v>
+        <v>-2.0583502769587</v>
       </c>
       <c r="I32" t="n">
-        <v>1.00098831660263</v>
+        <v>502</v>
       </c>
       <c r="J32" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33">
@@ -1729,31 +1732,31 @@
         <v>41</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06777668550285</v>
+        <v>-3.32186996543899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.050671923371644</v>
+        <v>0.273317385127856</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.03125025</v>
+        <v>-3.83319185043322</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0340075</v>
+        <v>-3.52509887760248</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06776</v>
+        <v>-3.31466713629408</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1018</v>
+        <v>-3.13339210624946</v>
       </c>
       <c r="H33" t="n">
-        <v>0.1668025</v>
+        <v>-2.79432162946907</v>
       </c>
       <c r="I33" t="n">
-        <v>1.00097808060438</v>
+        <v>502</v>
       </c>
       <c r="J33" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34">
@@ -1761,31 +1764,31 @@
         <v>42</v>
       </c>
       <c r="B34" t="n">
-        <v>-3.209085625</v>
+        <v>-2.91253738127735</v>
       </c>
       <c r="C34" t="n">
-        <v>0.159204597596793</v>
+        <v>0.126951640288098</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.524</v>
+        <v>-3.16042875567906</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.317</v>
+        <v>-3.00200460842362</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.208</v>
+        <v>-2.90454313059537</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.102</v>
+        <v>-2.83231124028799</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.898</v>
+        <v>-2.66317572940981</v>
       </c>
       <c r="I34" t="n">
-        <v>1.00110033990944</v>
+        <v>502</v>
       </c>
       <c r="J34" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35">
@@ -1793,31 +1796,31 @@
         <v>43</v>
       </c>
       <c r="B35" t="n">
-        <v>0.16791511434865</v>
+        <v>-2.0403403523301</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0923013048920543</v>
+        <v>0.069543564256945</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0141505</v>
+        <v>-2.17262038159738</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1057</v>
+        <v>-2.08911740832821</v>
       </c>
       <c r="F35" t="n">
-        <v>0.168</v>
+        <v>-2.04060047914371</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2296</v>
+        <v>-1.99273236034064</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3484025</v>
+        <v>-1.90950018970897</v>
       </c>
       <c r="I35" t="n">
-        <v>1.0016720830255</v>
+        <v>502</v>
       </c>
       <c r="J35" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36">
@@ -1825,31 +1828,31 @@
         <v>44</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.459041625</v>
+        <v>-2.87254994667131</v>
       </c>
       <c r="C36" t="n">
-        <v>0.174790006525027</v>
+        <v>0.133517256967428</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.804</v>
+        <v>-3.11969127342747</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.577</v>
+        <v>-2.9611338308409</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.459</v>
+        <v>-2.8665763964769</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.341</v>
+        <v>-2.78756376028636</v>
       </c>
       <c r="H36" t="n">
-        <v>-3.119</v>
+        <v>-2.59330033015321</v>
       </c>
       <c r="I36" t="n">
-        <v>1.00098447619668</v>
+        <v>502</v>
       </c>
       <c r="J36" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37">
@@ -1857,31 +1860,31 @@
         <v>45</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286708178</v>
+        <v>-2.3031027981618</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0911464722291353</v>
+        <v>0.211167221222657</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1070975</v>
+        <v>-2.72658675470628</v>
       </c>
       <c r="E37" t="n">
-        <v>0.225175</v>
+        <v>-2.43987665468044</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2866</v>
+        <v>-2.29893688076656</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3481</v>
+        <v>-2.16833754161321</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4653</v>
+        <v>-1.88742128455921</v>
       </c>
       <c r="I37" t="n">
-        <v>1.0009916087389</v>
+        <v>502</v>
       </c>
       <c r="J37" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="38">
@@ -1889,31 +1892,31 @@
         <v>46</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.459970525</v>
+        <v>-2.8792608406641</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0997921408128344</v>
+        <v>0.101172893135376</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.657</v>
+        <v>-3.07217668230331</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.527</v>
+        <v>-2.94912439304483</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.46</v>
+        <v>-2.8801680987907</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.392</v>
+        <v>-2.81381068841883</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.264</v>
+        <v>-2.67818918794025</v>
       </c>
       <c r="I38" t="n">
-        <v>1.00110476404728</v>
+        <v>502</v>
       </c>
       <c r="J38" t="n">
-        <v>11000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39">
@@ -1921,31 +1924,31 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.0206976669665</v>
+        <v>0.0501973441388866</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0692399792296009</v>
+        <v>0.0557588926942371</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1563025</v>
+        <v>-0.0596214926462385</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.067605</v>
+        <v>0.0138002080927195</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.020795</v>
+        <v>0.0504275807896811</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02608</v>
+        <v>0.0858049188954229</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1154</v>
+        <v>0.158696134805899</v>
       </c>
       <c r="I39" t="n">
-        <v>1.00103075239142</v>
+        <v>502</v>
       </c>
       <c r="J39" t="n">
-        <v>26000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40">
@@ -1953,31 +1956,31 @@
         <v>48</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.630734275</v>
+        <v>0.135339319473459</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0829085168169012</v>
+        <v>0.0851399402048878</v>
       </c>
       <c r="D40" t="n">
-        <v>-2.794</v>
+        <v>-0.0361464332323263</v>
       </c>
       <c r="E40" t="n">
-        <v>-2.687</v>
+        <v>0.0787425031091062</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.632</v>
+        <v>0.135413005348291</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.574</v>
+        <v>0.194212972658032</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.469</v>
+        <v>0.29811666601852</v>
       </c>
       <c r="I40" t="n">
-        <v>1.00097958929837</v>
+        <v>502</v>
       </c>
       <c r="J40" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="41">
@@ -1985,31 +1988,31 @@
         <v>49</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0485143171521925</v>
+        <v>-0.0296619093020741</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0629997845543335</v>
+        <v>0.0673451589111883</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1715</v>
+        <v>-0.166269540010071</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.09125</v>
+        <v>-0.0737123882821601</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.04872</v>
+        <v>-0.0271833076668662</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.00636075</v>
+        <v>0.0143157402546745</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07498025</v>
+        <v>0.099313607301664</v>
       </c>
       <c r="I41" t="n">
-        <v>1.00098132789107</v>
+        <v>502</v>
       </c>
       <c r="J41" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42">
@@ -2017,31 +2020,31 @@
         <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.55004865</v>
+        <v>-0.0327768897870158</v>
       </c>
       <c r="C42" t="n">
-        <v>0.210766639432299</v>
+        <v>0.132098580480838</v>
       </c>
       <c r="D42" t="n">
-        <v>-2.962</v>
+        <v>-0.293328021113625</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.693</v>
+        <v>-0.123324334380143</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.551</v>
+        <v>-0.027188292027571</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.406</v>
+        <v>0.0596947534840681</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.139</v>
+        <v>0.226331700531226</v>
       </c>
       <c r="I42" t="n">
-        <v>1.00123529401783</v>
+        <v>502</v>
       </c>
       <c r="J42" t="n">
-        <v>5700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="43">
@@ -2049,31 +2052,31 @@
         <v>51</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.017999666429825</v>
+        <v>0.134139026093778</v>
       </c>
       <c r="C43" t="n">
-        <v>0.115204628735502</v>
+        <v>0.104989706847224</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2448025</v>
+        <v>-0.0734679321066358</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.0953725</v>
+        <v>0.0618016308260119</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01814</v>
+        <v>0.139360706351252</v>
       </c>
       <c r="G43" t="n">
-        <v>0.059155</v>
+        <v>0.203811816947666</v>
       </c>
       <c r="H43" t="n">
-        <v>0.209</v>
+        <v>0.337664146303958</v>
       </c>
       <c r="I43" t="n">
-        <v>1.00115594033022</v>
+        <v>502</v>
       </c>
       <c r="J43" t="n">
-        <v>8200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44">
@@ -2081,31 +2084,31 @@
         <v>52</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.720809375</v>
+        <v>0.144362085483054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21028567316562</v>
+        <v>0.0949443670728421</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.132</v>
+        <v>-0.0381334752705879</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.863</v>
+        <v>0.0791677795578046</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.721</v>
+        <v>0.14472365821722</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.578</v>
+        <v>0.211987290507846</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.313</v>
+        <v>0.32646976561052</v>
       </c>
       <c r="I44" t="n">
-        <v>1.00140166229743</v>
+        <v>502</v>
       </c>
       <c r="J44" t="n">
-        <v>3500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45">
@@ -2113,31 +2116,31 @@
         <v>53</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.04581650042465</v>
+        <v>-0.059467154803242</v>
       </c>
       <c r="C45" t="n">
-        <v>0.117350816860396</v>
+        <v>0.0646057060194199</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2742</v>
+        <v>-0.192175043284017</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.1253</v>
+        <v>-0.103660375789063</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.046455</v>
+        <v>-0.0596716661022102</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03305</v>
+        <v>-0.0141169363265408</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1853</v>
+        <v>0.0591643934585169</v>
       </c>
       <c r="I45" t="n">
-        <v>1.00134324211375</v>
+        <v>502</v>
       </c>
       <c r="J45" t="n">
-        <v>4100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="46">
@@ -2145,31 +2148,31 @@
         <v>54</v>
       </c>
       <c r="B46" t="n">
-        <v>-2.330443975</v>
+        <v>-0.190529685705408</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214477483260994</v>
+        <v>0.0363599763354219</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.749</v>
+        <v>-0.261023919970866</v>
       </c>
       <c r="E46" t="n">
-        <v>-2.47525</v>
+        <v>-0.214464007272199</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.33</v>
+        <v>-0.191423489730267</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.187</v>
+        <v>-0.166679584730354</v>
       </c>
       <c r="H46" t="n">
-        <v>-1.909</v>
+        <v>-0.118976817647999</v>
       </c>
       <c r="I46" t="n">
-        <v>1.00122331852872</v>
+        <v>502</v>
       </c>
       <c r="J46" t="n">
-        <v>6000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="47">
@@ -2177,31 +2180,31 @@
         <v>55</v>
       </c>
       <c r="B47" t="n">
-        <v>0.13898155848635</v>
+        <v>0.124491676478757</v>
       </c>
       <c r="C47" t="n">
-        <v>0.109447237497204</v>
+        <v>0.0866983671984663</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.07464025</v>
+        <v>-0.0448075097302083</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06583</v>
+        <v>0.0665726479686233</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1393</v>
+        <v>0.126101363261901</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2124</v>
+        <v>0.183381883037108</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3524025</v>
+        <v>0.291211150668171</v>
       </c>
       <c r="I47" t="n">
-        <v>1.00125193962385</v>
+        <v>502</v>
       </c>
       <c r="J47" t="n">
-        <v>5400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="48">
@@ -2209,31 +2212,31 @@
         <v>56</v>
       </c>
       <c r="B48" t="n">
-        <v>-2.501205375</v>
+        <v>-0.0755036412905413</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219013227947446</v>
+        <v>0.0953584787310332</v>
       </c>
       <c r="D48" t="n">
-        <v>-2.932</v>
+        <v>-0.262512485711758</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.65</v>
+        <v>-0.137353075676075</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.503</v>
+        <v>-0.0791396679073512</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.353</v>
+        <v>-0.00699292437295795</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.07</v>
+        <v>0.110080193787333</v>
       </c>
       <c r="I48" t="n">
-        <v>1.00109873822459</v>
+        <v>502</v>
       </c>
       <c r="J48" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="49">
@@ -2241,31 +2244,31 @@
         <v>57</v>
       </c>
       <c r="B49" t="n">
-        <v>0.11116480619535</v>
+        <v>0.059150680602082</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101934531342036</v>
+        <v>0.0464433063417466</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0882705</v>
+        <v>-0.0333074567912813</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0433575</v>
+        <v>0.0282730496922615</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1118</v>
+        <v>0.0579520793660545</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1794</v>
+        <v>0.0931594998171422</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3126</v>
+        <v>0.150592185349428</v>
       </c>
       <c r="I49" t="n">
-        <v>1.00109549020115</v>
+        <v>502</v>
       </c>
       <c r="J49" t="n">
-        <v>12000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
@@ -2273,31 +2276,31 @@
         <v>58</v>
       </c>
       <c r="B50" t="n">
-        <v>-3.0228175</v>
+        <v>0.252823161918736</v>
       </c>
       <c r="C50" t="n">
-        <v>0.32174523002459</v>
+        <v>0.0836526536887882</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.656</v>
+        <v>0.0945239027975882</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.239</v>
+        <v>0.193793172227259</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.024</v>
+        <v>0.252074775596196</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.808</v>
+        <v>0.308601037539299</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.387</v>
+        <v>0.419330460629017</v>
       </c>
       <c r="I50" t="n">
-        <v>1.00145463748347</v>
+        <v>502</v>
       </c>
       <c r="J50" t="n">
-        <v>3100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51">
@@ -2305,31 +2308,31 @@
         <v>59</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0898994489764</v>
+        <v>-0.0647356330110926</v>
       </c>
       <c r="C51" t="n">
-        <v>0.144737274071372</v>
+        <v>0.0798677836391698</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1944</v>
+        <v>-0.218630344797469</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0070745</v>
+        <v>-0.11625891955637</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09049</v>
+        <v>-0.066260424260807</v>
       </c>
       <c r="G51" t="n">
-        <v>0.187125</v>
+        <v>-0.0141074307473273</v>
       </c>
       <c r="H51" t="n">
-        <v>0.3708</v>
+        <v>0.0965926520161782</v>
       </c>
       <c r="I51" t="n">
-        <v>1.00169831072122</v>
+        <v>502</v>
       </c>
       <c r="J51" t="n">
-        <v>2100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
@@ -2337,31 +2340,31 @@
         <v>60</v>
       </c>
       <c r="B52" t="n">
-        <v>-3.27277605</v>
+        <v>-0.0678506134960343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.336788398786295</v>
+        <v>0.136326649739461</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.936</v>
+        <v>-0.34285825823659</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.5</v>
+        <v>-0.166853469860359</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.273</v>
+        <v>-0.0622085632634723</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.047</v>
+        <v>0.0293833885324549</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.612</v>
+        <v>0.183260884041977</v>
       </c>
       <c r="I52" t="n">
-        <v>1.00116700141466</v>
+        <v>502</v>
       </c>
       <c r="J52" t="n">
-        <v>7800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="53">
@@ -2369,31 +2372,31 @@
         <v>61</v>
       </c>
       <c r="B53" t="n">
-        <v>0.2086927432715</v>
+        <v>0.0990653023847597</v>
       </c>
       <c r="C53" t="n">
-        <v>0.145617477136246</v>
+        <v>0.0957688719380825</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.076455</v>
+        <v>-0.0849296843678783</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1111</v>
+        <v>0.0384338370483448</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2086</v>
+        <v>0.0938382575177854</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3071</v>
+        <v>0.164011824183388</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4959025</v>
+        <v>0.291520563475842</v>
       </c>
       <c r="I53" t="n">
-        <v>1.00102738112863</v>
+        <v>502</v>
       </c>
       <c r="J53" t="n">
-        <v>28000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="54">
@@ -2401,31 +2404,31 @@
         <v>62</v>
       </c>
       <c r="B54" t="n">
-        <v>-2.7565041</v>
+        <v>0.261845927928331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.114853444293289</v>
+        <v>0.105157527386162</v>
       </c>
       <c r="D54" t="n">
-        <v>-2.98</v>
+        <v>0.0566856907302284</v>
       </c>
       <c r="E54" t="n">
-        <v>-2.834</v>
+        <v>0.190004119130799</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.757</v>
+        <v>0.26421209865866</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.679</v>
+        <v>0.333807286722518</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.531</v>
+        <v>0.455270530351376</v>
       </c>
       <c r="I54" t="n">
-        <v>1.00097752167159</v>
+        <v>502</v>
       </c>
       <c r="J54" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="55">
@@ -2433,31 +2436,31 @@
         <v>63</v>
       </c>
       <c r="B55" t="n">
-        <v>-0.040780704876275</v>
+        <v>0.0580166876420349</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0650310141157544</v>
+        <v>0.070416938712298</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1677</v>
+        <v>-0.0803248627796333</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.0844025</v>
+        <v>0.0107795848421399</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.04132</v>
+        <v>0.0578972060158103</v>
       </c>
       <c r="G55" t="n">
-        <v>0.00286025</v>
+        <v>0.103217769365921</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0877305</v>
+        <v>0.200460652781029</v>
       </c>
       <c r="I55" t="n">
-        <v>1.0010004801969</v>
+        <v>502</v>
       </c>
       <c r="J55" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56">
@@ -2465,31 +2468,31 @@
         <v>64</v>
       </c>
       <c r="B56" t="n">
-        <v>-3.00645725</v>
+        <v>-0.181576349242213</v>
       </c>
       <c r="C56" t="n">
-        <v>0.146515501713107</v>
+        <v>0.0373748686452248</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.292</v>
+        <v>-0.251009491188507</v>
       </c>
       <c r="E56" t="n">
-        <v>-3.106</v>
+        <v>-0.208101324579706</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.007</v>
+        <v>-0.180854174162387</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.908</v>
+        <v>-0.155985401986289</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.718</v>
+        <v>-0.110156476584297</v>
       </c>
       <c r="I56" t="n">
-        <v>1.00128846343378</v>
+        <v>502</v>
       </c>
       <c r="J56" t="n">
-        <v>4800</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="57">
@@ -2497,31 +2500,31 @@
         <v>65</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07801285557075</v>
+        <v>0.241975518924034</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0809422001744334</v>
+        <v>0.0887150868081685</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.08144275</v>
+        <v>0.0645370675344165</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0232</v>
+        <v>0.18216331168075</v>
       </c>
       <c r="F57" t="n">
-        <v>0.07839</v>
+        <v>0.242821134995644</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1328</v>
+        <v>0.303949242562343</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2355025</v>
+        <v>0.408318164363785</v>
       </c>
       <c r="I57" t="n">
-        <v>1.00191960249978</v>
+        <v>502</v>
       </c>
       <c r="J57" t="n">
-        <v>1600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="58">
@@ -2529,31 +2532,31 @@
         <v>66</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.927267</v>
+        <v>0.0419802011547356</v>
       </c>
       <c r="C58" t="n">
-        <v>0.11560043597461</v>
+        <v>0.107189616046764</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.156</v>
+        <v>-0.170626992857309</v>
       </c>
       <c r="E58" t="n">
-        <v>-3.005</v>
+        <v>-0.0287739694732579</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.927</v>
+        <v>0.0484591433705846</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.849</v>
+        <v>0.114388995213288</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.702</v>
+        <v>0.24870550367373</v>
       </c>
       <c r="I58" t="n">
-        <v>1.00101124226342</v>
+        <v>502</v>
       </c>
       <c r="J58" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59">
@@ -2561,31 +2564,31 @@
         <v>67</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.068597343598715</v>
+        <v>-0.0945408785122605</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0688419706285358</v>
+        <v>0.0673028030028329</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.2025</v>
+        <v>-0.225438789991278</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1156</v>
+        <v>-0.142997492214748</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.0682</v>
+        <v>-0.0918820240853275</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.0218175</v>
+        <v>-0.046694900510463</v>
       </c>
       <c r="H59" t="n">
-        <v>0.06566</v>
+        <v>0.0337012432866294</v>
       </c>
       <c r="I59" t="n">
-        <v>1.00120087435297</v>
+        <v>502</v>
       </c>
       <c r="J59" t="n">
-        <v>6600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="60">
@@ -2593,31 +2596,31 @@
         <v>68</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.8261328</v>
+        <v>-2.31440070769549</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08423799033177</v>
+        <v>0.086291893521401</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.993</v>
+        <v>-2.48132342397211</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.883</v>
+        <v>-2.37399515109221</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.826</v>
+        <v>-2.31305520295557</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.769</v>
+        <v>-2.25203491182822</v>
       </c>
       <c r="H60" t="n">
-        <v>-1.661</v>
+        <v>-2.14942527369409</v>
       </c>
       <c r="I60" t="n">
-        <v>1.00101903346791</v>
+        <v>502</v>
       </c>
       <c r="J60" t="n">
-        <v>33000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="61">
@@ -2625,31 +2628,31 @@
         <v>69</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.18476980575</v>
+        <v>-3.14402691789636</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0390056642184285</v>
+        <v>0.147618024838209</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.2612</v>
+        <v>-3.43719621495686</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.2111</v>
+        <v>-3.24895897327478</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1847</v>
+        <v>-3.13999574678434</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1583</v>
+        <v>-3.04379791879658</v>
       </c>
       <c r="H61" t="n">
-        <v>-0.1081</v>
+        <v>-2.87025738967132</v>
       </c>
       <c r="I61" t="n">
-        <v>1.00097799231845</v>
+        <v>502</v>
       </c>
       <c r="J61" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="62">
@@ -2657,31 +2660,31 @@
         <v>70</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.03113855</v>
+        <v>-2.39170449342518</v>
       </c>
       <c r="C62" t="n">
-        <v>0.089505548626766</v>
+        <v>0.08764397976582</v>
       </c>
       <c r="D62" t="n">
-        <v>-2.205</v>
+        <v>-2.55824597696798</v>
       </c>
       <c r="E62" t="n">
-        <v>-2.092</v>
+        <v>-2.45217160391504</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.031</v>
+        <v>-2.38936407860654</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.97</v>
+        <v>-2.33292758582806</v>
       </c>
       <c r="H62" t="n">
-        <v>-1.856</v>
+        <v>-2.22056474422704</v>
       </c>
       <c r="I62" t="n">
-        <v>1.0009832973461</v>
+        <v>502</v>
       </c>
       <c r="J62" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="63">
@@ -2689,31 +2692,31 @@
         <v>71</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.18046228031</v>
+        <v>-2.45766377833005</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0441366155980372</v>
+        <v>0.194738124726257</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.2670025</v>
+        <v>-2.83223030096746</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.2104</v>
+        <v>-2.5885636246865</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1804</v>
+        <v>-2.45593207000419</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1507</v>
+        <v>-2.32447916799329</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.09382</v>
+        <v>-2.08850073067326</v>
       </c>
       <c r="I63" t="n">
-        <v>1.00097658608147</v>
+        <v>502</v>
       </c>
       <c r="J63" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="64">
@@ -2721,31 +2724,31 @@
         <v>72</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.67182385</v>
+        <v>-2.23740892036724</v>
       </c>
       <c r="C64" t="n">
-        <v>0.151544268327143</v>
+        <v>0.186708514428427</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.969</v>
+        <v>-2.59625949821539</v>
       </c>
       <c r="E64" t="n">
-        <v>-2.774</v>
+        <v>-2.35805220405518</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.672</v>
+        <v>-2.23841753377883</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.57</v>
+        <v>-2.1193116810912</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.375</v>
+        <v>-1.87565561122744</v>
       </c>
       <c r="I64" t="n">
-        <v>1.00100172439129</v>
+        <v>502</v>
       </c>
       <c r="J64" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="65">
@@ -2753,31 +2756,31 @@
         <v>73</v>
       </c>
       <c r="B65" t="n">
-        <v>0.14900377379975</v>
+        <v>-3.09904699774047</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0832113324478672</v>
+        <v>0.251737257450964</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01498225</v>
+        <v>-3.58428961411203</v>
       </c>
       <c r="E65" t="n">
-        <v>0.09258</v>
+        <v>-3.27553508015461</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1492</v>
+        <v>-3.1026923065435</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2052</v>
+        <v>-2.92839931192713</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3122025</v>
+        <v>-2.60591646580824</v>
       </c>
       <c r="I65" t="n">
-        <v>1.00118100790403</v>
+        <v>502</v>
       </c>
       <c r="J65" t="n">
-        <v>7200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="66">
@@ -2785,31 +2788,31 @@
         <v>74</v>
       </c>
       <c r="B66" t="n">
-        <v>-2.921779325</v>
+        <v>-2.68971441357883</v>
       </c>
       <c r="C66" t="n">
-        <v>0.15119108107332</v>
+        <v>0.110420461631123</v>
       </c>
       <c r="D66" t="n">
-        <v>-3.217</v>
+        <v>-2.90753276744077</v>
       </c>
       <c r="E66" t="n">
-        <v>-3.024</v>
+        <v>-2.76401325172936</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.922</v>
+        <v>-2.69046487290672</v>
       </c>
       <c r="G66" t="n">
-        <v>-2.819</v>
+        <v>-2.61302000756139</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.626</v>
+        <v>-2.47412104376106</v>
       </c>
       <c r="I66" t="n">
-        <v>1.00108109476971</v>
+        <v>502</v>
       </c>
       <c r="J66" t="n">
-        <v>14000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67">
@@ -2817,31 +2820,31 @@
         <v>75</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2677973706715</v>
+        <v>-1.84719356885684</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0935644608921586</v>
+        <v>0.0665478936841341</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08462975</v>
+        <v>-1.97999092574222</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2044</v>
+        <v>-1.89266650326882</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2679</v>
+        <v>-1.84771623049037</v>
       </c>
       <c r="G67" t="n">
-        <v>0.3315</v>
+        <v>-1.80325478503733</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4512</v>
+        <v>-1.71666670099212</v>
       </c>
       <c r="I67" t="n">
-        <v>1.0012765101839</v>
+        <v>502</v>
       </c>
       <c r="J67" t="n">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="68">
@@ -2849,31 +2852,31 @@
         <v>76</v>
       </c>
       <c r="B68" t="n">
-        <v>-2.07331985</v>
+        <v>-2.64972697897279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.202368264109854</v>
+        <v>0.134639366554148</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.469</v>
+        <v>-2.90008128976081</v>
       </c>
       <c r="E68" t="n">
-        <v>-2.211</v>
+        <v>-2.74077283940138</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.072</v>
+        <v>-2.64878407214158</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.935</v>
+        <v>-2.55656425250709</v>
       </c>
       <c r="H68" t="n">
-        <v>-1.679975</v>
+        <v>-2.38727705441961</v>
       </c>
       <c r="I68" t="n">
-        <v>1.00117677177485</v>
+        <v>502</v>
       </c>
       <c r="J68" t="n">
-        <v>7400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="69">
@@ -2881,31 +2884,31 @@
         <v>77</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.07523544953075</v>
+        <v>-2.08027983046328</v>
       </c>
       <c r="C69" t="n">
-        <v>0.110907763472098</v>
+        <v>0.207304462276104</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.2923</v>
+        <v>-2.45348440492947</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.1503</v>
+        <v>-2.23921279466786</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.07601</v>
+        <v>-2.07253771597885</v>
       </c>
       <c r="G69" t="n">
-        <v>0.000425575</v>
+        <v>-1.9485430588199</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1404</v>
+        <v>-1.65066495604078</v>
       </c>
       <c r="I69" t="n">
-        <v>1.00125283201324</v>
+        <v>502</v>
       </c>
       <c r="J69" t="n">
-        <v>5400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="70">
@@ -2913,31 +2916,31 @@
         <v>78</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.3232741</v>
+        <v>0.0501973441388866</v>
       </c>
       <c r="C70" t="n">
-        <v>0.226146687411723</v>
+        <v>0.0557588926942371</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.764</v>
+        <v>-0.0596214926462385</v>
       </c>
       <c r="E70" t="n">
-        <v>-2.475</v>
+        <v>0.0138002080927195</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.322</v>
+        <v>0.0504275807896811</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.171</v>
+        <v>0.0858049188954229</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.882</v>
+        <v>0.158696134805899</v>
       </c>
       <c r="I70" t="n">
-        <v>1.00097856534082</v>
+        <v>502</v>
       </c>
       <c r="J70" t="n">
-        <v>40000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="71">
@@ -2945,31 +2948,31 @@
         <v>79</v>
       </c>
       <c r="B71" t="n">
-        <v>0.043557870719625</v>
+        <v>0.135339319473459</v>
       </c>
       <c r="C71" t="n">
-        <v>0.124545309443424</v>
+        <v>0.0851399402048878</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.2018025</v>
+        <v>-0.0361464332323263</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.0405325</v>
+        <v>0.0787425031091062</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04454</v>
+        <v>0.135413005348291</v>
       </c>
       <c r="G71" t="n">
-        <v>0.1276</v>
+        <v>0.194212972658032</v>
       </c>
       <c r="H71" t="n">
-        <v>0.2848075</v>
+        <v>0.29811666601852</v>
       </c>
       <c r="I71" t="n">
-        <v>1.00103458478808</v>
+        <v>502</v>
       </c>
       <c r="J71" t="n">
-        <v>25000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="72">
@@ -2977,31 +2980,31 @@
         <v>80</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.528223725</v>
+        <v>-0.0296619093020741</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0648520174453235</v>
+        <v>0.0673451589111883</v>
       </c>
       <c r="D72" t="n">
-        <v>-2.656</v>
+        <v>-0.166269540010071</v>
       </c>
       <c r="E72" t="n">
-        <v>-2.572</v>
+        <v>-0.0737123882821601</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.528</v>
+        <v>-0.0271833076668662</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.485</v>
+        <v>0.0143157402546745</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.401</v>
+        <v>0.099313607301664</v>
       </c>
       <c r="I72" t="n">
-        <v>1.00122051280226</v>
+        <v>502</v>
       </c>
       <c r="J72" t="n">
-        <v>6100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="73">
@@ -3009,31 +3012,31 @@
         <v>81</v>
       </c>
       <c r="B73" t="n">
-        <v>-2.7332311</v>
+        <v>-0.0327768897870158</v>
       </c>
       <c r="C73" t="n">
-        <v>0.115076150682065</v>
+        <v>0.132098580480838</v>
       </c>
       <c r="D73" t="n">
-        <v>-2.958</v>
+        <v>-0.293328021113625</v>
       </c>
       <c r="E73" t="n">
-        <v>-2.811</v>
+        <v>-0.123324334380143</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.734</v>
+        <v>-0.027188292027571</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.656</v>
+        <v>0.0596947534840681</v>
       </c>
       <c r="H73" t="n">
-        <v>-2.508</v>
+        <v>0.226331700531226</v>
       </c>
       <c r="I73" t="n">
-        <v>1.00123598699555</v>
+        <v>502</v>
       </c>
       <c r="J73" t="n">
-        <v>5700</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="74">
@@ -3041,31 +3044,31 @@
         <v>82</v>
       </c>
       <c r="B74" t="n">
-        <v>-2.778179975</v>
+        <v>0.134139026093778</v>
       </c>
       <c r="C74" t="n">
-        <v>0.129826273363795</v>
+        <v>0.104989706847224</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.031</v>
+        <v>-0.0734679321066358</v>
       </c>
       <c r="E74" t="n">
-        <v>-2.866</v>
+        <v>0.0618016308260119</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.778</v>
+        <v>0.139360706351252</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.69</v>
+        <v>0.203811816947666</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.524</v>
+        <v>0.337664146303958</v>
       </c>
       <c r="I74" t="n">
-        <v>1.00108280983489</v>
+        <v>502</v>
       </c>
       <c r="J74" t="n">
-        <v>14000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="75">
@@ -3073,31 +3076,31 @@
         <v>83</v>
       </c>
       <c r="B75" t="n">
-        <v>-2.6989869</v>
+        <v>0.144362085483054</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103449249741464</v>
+        <v>0.0949443670728421</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.903</v>
+        <v>-0.0381334752705879</v>
       </c>
       <c r="E75" t="n">
-        <v>-2.768</v>
+        <v>0.0791677795578046</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.699</v>
+        <v>0.14472365821722</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.629</v>
+        <v>0.211987290507846</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.496</v>
+        <v>0.32646976561052</v>
       </c>
       <c r="I75" t="n">
-        <v>1.00133171214838</v>
+        <v>502</v>
       </c>
       <c r="J75" t="n">
-        <v>4200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="76">
@@ -3105,31 +3108,31 @@
         <v>84</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02697854919445</v>
+        <v>-0.059467154803242</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0359778026775478</v>
+        <v>0.0646057060194199</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.04348125</v>
+        <v>-0.192175043284017</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00269325</v>
+        <v>-0.103660375789063</v>
       </c>
       <c r="F76" t="n">
-        <v>0.027045</v>
+        <v>-0.0596716661022102</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0512625</v>
+        <v>-0.0141169363265408</v>
       </c>
       <c r="H76" t="n">
-        <v>0.09791025</v>
+        <v>0.0591643934585169</v>
       </c>
       <c r="I76" t="n">
-        <v>1.00160871391363</v>
+        <v>502</v>
       </c>
       <c r="J76" t="n">
-        <v>2400</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="77">
@@ -3137,31 +3140,31 @@
         <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>0.031285990005185</v>
+        <v>-0.190529685705408</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0596008445547033</v>
+        <v>0.0363599763354219</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.08538025</v>
+        <v>-0.261023919970866</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.0091105</v>
+        <v>-0.214464007272199</v>
       </c>
       <c r="F77" t="n">
-        <v>0.031375</v>
+        <v>-0.191423489730267</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0714225</v>
+        <v>-0.166679584730354</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1487</v>
+        <v>-0.118976817647999</v>
       </c>
       <c r="I77" t="n">
-        <v>1.00113005662769</v>
+        <v>502</v>
       </c>
       <c r="J77" t="n">
-        <v>9600</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78">
@@ -3169,31 +3172,31 @@
         <v>86</v>
       </c>
       <c r="B78" t="n">
-        <v>0.1457720998404</v>
+        <v>0.124491676478757</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0692648807514619</v>
+        <v>0.0866983671984663</v>
       </c>
       <c r="D78" t="n">
-        <v>0.009865475</v>
+        <v>-0.0448075097302083</v>
       </c>
       <c r="E78" t="n">
-        <v>0.0990775</v>
+        <v>0.0665726479686233</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1458</v>
+        <v>0.126101363261901</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1925</v>
+        <v>0.183381883037108</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2811</v>
+        <v>0.291211150668171</v>
       </c>
       <c r="I78" t="n">
-        <v>1.00174239740394</v>
+        <v>502</v>
       </c>
       <c r="J78" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="79">
@@ -3201,31 +3204,31 @@
         <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.000838182109</v>
+        <v>-0.0755036412905413</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0613976490149101</v>
+        <v>0.0953584787310332</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.1207</v>
+        <v>-0.262512485711758</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.04249</v>
+        <v>-0.137353075676075</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0009789</v>
+        <v>-0.0791396679073512</v>
       </c>
       <c r="G79" t="n">
-        <v>0.04047</v>
+        <v>-0.00699292437295795</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1207025</v>
+        <v>0.110080193787333</v>
       </c>
       <c r="I79" t="n">
-        <v>1.00165865823661</v>
+        <v>502</v>
       </c>
       <c r="J79" t="n">
-        <v>2200</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="80">
@@ -3233,31 +3236,63 @@
         <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>-52.76393375</v>
+        <v>-2.49111666073265</v>
       </c>
       <c r="C80" t="n">
-        <v>7.18663038492437</v>
+        <v>0.0577471300487715</v>
       </c>
       <c r="D80" t="n">
-        <v>-64.90025</v>
+        <v>-2.59737910368333</v>
       </c>
       <c r="E80" t="n">
-        <v>-57.91</v>
+        <v>-2.53123659211492</v>
       </c>
       <c r="F80" t="n">
-        <v>-53.39</v>
+        <v>-2.49189302867119</v>
       </c>
       <c r="G80" t="n">
-        <v>-48.34</v>
+        <v>-2.45206161884757</v>
       </c>
       <c r="H80" t="n">
-        <v>-36.97975</v>
+        <v>-2.37764285457303</v>
       </c>
       <c r="I80" t="n">
-        <v>1.00098348608903</v>
+        <v>502</v>
       </c>
       <c r="J80" t="n">
-        <v>40000</v>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.0200590170779654</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.033487445202082</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.0470014403952893</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.00303316600164318</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0197274016659746</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0436975859487794</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0850269721666005</v>
+      </c>
+      <c r="I81" t="n">
+        <v>502</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -3276,15 +3311,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -3292,7 +3327,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -3300,7 +3335,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -3308,7 +3343,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -3330,24 +3365,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.765</v>
+        <v>-57.54</v>
       </c>
       <c r="B2" t="n">
-        <v>25.95</v>
+        <v>25.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-26.815</v>
+        <v>-32.06</v>
       </c>
     </row>
   </sheetData>
@@ -3366,45 +3401,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -3413,28 +3448,28 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.39500202175584</v>
+        <v>-2.33006830871177</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10812372759168</v>
+        <v>0.10533870155035</v>
       </c>
       <c r="G2" t="n">
-        <v>0.103772517733394</v>
+        <v>0.105924771630349</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0769739957034721</v>
+        <v>0.0881247958125287</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0116907404683198</v>
+        <v>0.0110962420443137</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00592499601455814</v>
+        <v>0.00776597963699988</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.00402251489432989</v>
+        <v>-0.00350576567788289</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -3442,7 +3477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -3451,28 +3486,28 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.57824772385901</v>
+        <v>-2.49972872840229</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125256517287666</v>
+        <v>0.122057447093382</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0468565894924138</v>
+        <v>0.0391414385130606</v>
       </c>
       <c r="H3" t="n">
-        <v>0.05928365352867</v>
+        <v>0.0517908396172799</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0156891951230354</v>
+        <v>0.0148980203909537</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00351455157570738</v>
+        <v>0.00268229106826281</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.00425682222495584</v>
+        <v>-0.00257155016007909</v>
       </c>
       <c r="L3" t="n">
         <v>2</v>
@@ -3480,7 +3515,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="n">
         <v>2</v>
@@ -3489,28 +3524,28 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.13810935882744</v>
+        <v>-3.09126802584416</v>
       </c>
       <c r="F4" t="n">
-        <v>0.188580141371055</v>
+        <v>0.175312283413101</v>
       </c>
       <c r="G4" t="n">
-        <v>0.150618291702876</v>
+        <v>0.143473106550909</v>
       </c>
       <c r="H4" t="n">
-        <v>0.122038959982672</v>
+        <v>0.117818399725227</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0355624697195271</v>
+        <v>0.0307343967155154</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0148935077536523</v>
+        <v>0.0138811753138134</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0152701894491901</v>
+        <v>-0.0141763938303875</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -3518,7 +3553,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -3527,28 +3562,28 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.58822680878078</v>
+        <v>-3.48734749630726</v>
       </c>
       <c r="F5" t="n">
-        <v>0.250481693413968</v>
+        <v>0.242367660737922</v>
       </c>
       <c r="G5" t="n">
-        <v>0.327498708634429</v>
+        <v>0.282416396265322</v>
       </c>
       <c r="H5" t="n">
-        <v>0.118770393218704</v>
+        <v>0.11231437447069</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0627410787355289</v>
+        <v>0.0587420829715727</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0141064063053257</v>
+        <v>0.0126145187127423</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0232967607253938</v>
+        <v>-0.0229317679615367</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
@@ -3556,7 +3591,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -3565,28 +3600,28 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.48739851639861</v>
+        <v>-2.41945335488241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119237197740365</v>
+        <v>0.107605083706125</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0173439251044164</v>
+        <v>-0.0399294119806398</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0858621209145547</v>
+        <v>0.0802228258285359</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0142175093249749</v>
+        <v>0.0115788540394022</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00737230380794561</v>
+        <v>0.00643570178391561</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.00675677729281162</v>
+        <v>-0.00318512887970389</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -3594,7 +3629,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B7" t="n">
         <v>3</v>
@@ -3603,28 +3638,28 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.61351770303824</v>
+        <v>-2.56891849151363</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0912646059721666</v>
+        <v>0.0953207574839895</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0447916602245716</v>
+        <v>-0.0434775808987697</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0750187544228287</v>
+        <v>0.101936547928577</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00832922830325483</v>
+        <v>0.00908604680732155</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00562781351515267</v>
+        <v>0.0103910598035951</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00329069460677465</v>
+        <v>-0.00562530671538125</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
@@ -3632,7 +3667,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -3641,28 +3676,28 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.35992376256339</v>
+        <v>-2.28927585322432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.309719915328088</v>
+        <v>0.263546347264198</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.153144231507661</v>
+        <v>-0.107253607990594</v>
       </c>
       <c r="H8" t="n">
-        <v>0.150161873039823</v>
+        <v>0.169984735668374</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0959264259508379</v>
+        <v>0.0694566771563014</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0225485881148278</v>
+        <v>0.0288948103602471</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0218092681903502</v>
+        <v>-0.0143544642403251</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -3670,7 +3705,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -3679,28 +3714,28 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9" t="n">
-        <v>-3.00978071494291</v>
+        <v>-2.97605246674702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.294620451678279</v>
+        <v>0.323540867216825</v>
       </c>
       <c r="G9" t="n">
-        <v>0.138978900167005</v>
+        <v>0.137278719565766</v>
       </c>
       <c r="H9" t="n">
-        <v>0.170187449721332</v>
+        <v>0.216077907045135</v>
       </c>
       <c r="I9" t="n">
-        <v>0.086801210547113</v>
+        <v>0.104678692759415</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0289637680426511</v>
+        <v>0.0466896619130061</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0421769037283446</v>
+        <v>-0.0591706299533721</v>
       </c>
       <c r="L9" t="n">
         <v>2</v>
@@ -3708,7 +3743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" t="n">
         <v>5</v>
@@ -3717,28 +3752,28 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.14218267845162</v>
+        <v>-2.0472551672577</v>
       </c>
       <c r="F10" t="n">
-        <v>0.273912315481934</v>
+        <v>0.261938085818681</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1969390943671</v>
+        <v>0.155430830791449</v>
       </c>
       <c r="H10" t="n">
-        <v>0.161633137077179</v>
+        <v>0.172266877897778</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0750279565726748</v>
+        <v>0.0686115608023547</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0261252710014103</v>
+        <v>0.0296758772206481</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0311812098035073</v>
+        <v>-0.0339121655313017</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -3746,7 +3781,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
@@ -3755,28 +3790,28 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.82367267232602</v>
+        <v>-2.6879308622404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.324682196980101</v>
+        <v>0.254893879407089</v>
       </c>
       <c r="G11" t="n">
-        <v>0.175621856814685</v>
+        <v>0.130167622053188</v>
       </c>
       <c r="H11" t="n">
-        <v>0.13578283802204</v>
+        <v>0.11158061989941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.105418529035825</v>
+        <v>0.0649708897591956</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0184369791013194</v>
+        <v>0.0124502347371367</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0377651881515243</v>
+        <v>-0.0206858569923194</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -3784,7 +3819,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B12" t="n">
         <v>6</v>
@@ -3793,28 +3828,28 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.85084742220134</v>
+        <v>-2.76488446758512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.373118632041817</v>
+        <v>0.2959383108534</v>
       </c>
       <c r="G12" t="n">
-        <v>0.191139707450786</v>
+        <v>0.174964827340232</v>
       </c>
       <c r="H12" t="n">
-        <v>0.184639301058125</v>
+        <v>0.114840037842542</v>
       </c>
       <c r="I12" t="n">
-        <v>0.139217513576757</v>
+        <v>0.0875794838307637</v>
       </c>
       <c r="J12" t="n">
-        <v>0.034091671495233</v>
+        <v>0.0131882342916765</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0563951175806997</v>
+        <v>-0.0198566769345156</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -3822,7 +3857,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="n">
         <v>6</v>
@@ -3831,28 +3866,28 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.00779465950803</v>
+        <v>-3.92419203737332</v>
       </c>
       <c r="F13" t="n">
-        <v>0.628093159789506</v>
+        <v>0.494772230509085</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375222007563247</v>
+        <v>0.360426783558681</v>
       </c>
       <c r="H13" t="n">
-        <v>0.244402793342619</v>
+        <v>0.187127507302931</v>
       </c>
       <c r="I13" t="n">
-        <v>0.394501017374366</v>
+        <v>0.244799560082935</v>
       </c>
       <c r="J13" t="n">
-        <v>0.059732725393675</v>
+        <v>0.0350167039894086</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.14457190032534</v>
+        <v>-0.0810677652745029</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -3860,7 +3895,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="n">
         <v>7</v>
@@ -3869,28 +3904,28 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.84402157787172</v>
+        <v>-2.79738339481437</v>
       </c>
       <c r="F14" t="n">
-        <v>0.166400404319523</v>
+        <v>0.171698196289065</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0114217344621236</v>
+        <v>-0.0139801110920569</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0918101730715185</v>
+        <v>0.105889677952872</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0276890945577009</v>
+        <v>0.0294802706089184</v>
       </c>
       <c r="J14" t="n">
-        <v>0.00842910787942218</v>
+        <v>0.011212623896963</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.00936032305604423</v>
+        <v>-0.0116199924086907</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -3898,7 +3933,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -3907,28 +3942,28 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.01920941114309</v>
+        <v>-2.95410791709162</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1957543823296</v>
+        <v>0.173133254677496</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0688710722139505</v>
+        <v>0.0556593266224006</v>
       </c>
       <c r="H15" t="n">
-        <v>0.106918285891009</v>
+        <v>0.0926145582214106</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0383197782012431</v>
+        <v>0.0299751238752225</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0114315198578715</v>
+        <v>0.00857745639454706</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0153403431417579</v>
+        <v>-0.0112536040524681</v>
       </c>
       <c r="L15" t="n">
         <v>2</v>
@@ -3936,7 +3971,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" t="n">
         <v>7</v>
@@ -3945,28 +3980,28 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.8473150791631</v>
+        <v>-2.79756053367509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.144695958439284</v>
+        <v>0.119642980975563</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0750160783595377</v>
+        <v>-0.0884476008590871</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0858304841970044</v>
+        <v>0.0838583312620675</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0209369203886629</v>
+        <v>0.014314442896719</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00736687201749222</v>
+        <v>0.00703221972205866</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.00586329307363494</v>
+        <v>-0.00234476540435095</v>
       </c>
       <c r="L16" t="n">
         <v>3</v>
@@ -3974,7 +4009,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B17" t="n">
         <v>8</v>
@@ -3983,28 +4018,28 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.83658401006587</v>
+        <v>-1.8496768167544</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0953889499198419</v>
+        <v>0.0713815590614557</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.197722113791001</v>
+        <v>-0.201232123211273</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0419833442232253</v>
+        <v>0.036854147082554</v>
       </c>
       <c r="I17" t="n">
-        <v>0.00909905176681011</v>
+        <v>0.00509532697404409</v>
       </c>
       <c r="J17" t="n">
-        <v>0.00176260119216583</v>
+        <v>0.00135822815718253</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.000608601100755223</v>
+        <v>-0.000288346995536712</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
@@ -4012,7 +4047,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B18" t="n">
         <v>8</v>
@@ -4021,28 +4056,28 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.02920667547382</v>
+        <v>-2.04690973252514</v>
       </c>
       <c r="F18" t="n">
-        <v>0.101386015116349</v>
+        <v>0.0737316968516354</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.165252558924571</v>
+        <v>-0.171946395700535</v>
       </c>
       <c r="H18" t="n">
-        <v>0.04858091302945</v>
+        <v>0.0388523711236188</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0102791240611726</v>
+        <v>0.00543636312062147</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00236010511077498</v>
+        <v>0.00150950674192741</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0018486256997203</v>
+        <v>-0.00158773213442984</v>
       </c>
       <c r="L18" t="n">
         <v>2</v>
@@ -4050,7 +4085,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" t="n">
         <v>9</v>
@@ -4059,28 +4094,28 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.88701180933812</v>
+        <v>-2.83545108599723</v>
       </c>
       <c r="F19" t="n">
-        <v>0.187647325679811</v>
+        <v>0.159160874987795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.161475571525528</v>
+        <v>0.145673114301433</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0969665892615014</v>
+        <v>0.0977476357725525</v>
       </c>
       <c r="I19" t="n">
-        <v>0.035211518834785</v>
+        <v>0.0253321841268806</v>
       </c>
       <c r="J19" t="n">
-        <v>0.00940251943300871</v>
+        <v>0.00955460029912358</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0137431723158013</v>
+        <v>-0.0120621687812353</v>
       </c>
       <c r="L19" t="n">
         <v>1</v>
@@ -4088,7 +4123,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B20" t="n">
         <v>9</v>
@@ -4097,28 +4132,28 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.80076969518453</v>
+        <v>-2.72194870874295</v>
       </c>
       <c r="F20" t="n">
-        <v>0.199420834984694</v>
+        <v>0.163891712200428</v>
       </c>
       <c r="G20" t="n">
-        <v>0.300144465918335</v>
+        <v>0.255836150826446</v>
       </c>
       <c r="H20" t="n">
-        <v>0.135723151780683</v>
+        <v>0.118697956862633</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0397686694259927</v>
+        <v>0.026860493327988</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0184207739292822</v>
+        <v>0.0140892049633635</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0225109028945209</v>
+        <v>-0.0149839404293542</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -4126,7 +4161,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B21" t="n">
         <v>10</v>
@@ -4135,28 +4170,28 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.95308165608033</v>
+        <v>-1.91600227134157</v>
       </c>
       <c r="F21" t="n">
-        <v>0.235764186065949</v>
+        <v>0.257928758189887</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.127807148941032</v>
+        <v>-0.139560850406393</v>
       </c>
       <c r="H21" t="n">
-        <v>0.128157101154197</v>
+        <v>0.105925170492656</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0555847514313396</v>
+        <v>0.0665272443013772</v>
       </c>
       <c r="J21" t="n">
-        <v>0.016424242576247</v>
+        <v>0.0112201417438982</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.014699123668472</v>
+        <v>-0.0112609082153799</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -4164,7 +4199,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B22" t="n">
         <v>10</v>
@@ -4173,28 +4208,28 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.70892943143692</v>
+        <v>-2.61515646363081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.395908632478748</v>
+        <v>0.320756770614934</v>
       </c>
       <c r="G22" t="n">
-        <v>0.242382907798554</v>
+        <v>0.213278475676705</v>
       </c>
       <c r="H22" t="n">
-        <v>0.219530970391322</v>
+        <v>0.172728878584829</v>
       </c>
       <c r="I22" t="n">
-        <v>0.156743645271192</v>
+        <v>0.102884905895322</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0481938469609553</v>
+        <v>0.0298352654971725</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0662510125415888</v>
+        <v>-0.0348334841073863</v>
       </c>
       <c r="L22" t="n">
         <v>2</v>
